--- a/Labor population.xlsx
+++ b/Labor population.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rdave\git\ETL-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8319975-3AD5-4DF9-A944-E8528F2C51E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D451FE2D-898A-49E7-954E-07FEB100039E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="8076" yWindow="1968" windowWidth="14256" windowHeight="6504" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="API_SL.TLF.TOTL.IN_DS2_en_csv_v" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="10">
   <si>
     <t>Country Name</t>
   </si>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -890,11 +890,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1008,35 +1008,35 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10">
-        <v>12970157</v>
+        <v>41952677</v>
       </c>
       <c r="C10">
-        <v>2017</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11">
-        <v>13133575</v>
+        <v>42014274</v>
       </c>
       <c r="C11">
-        <v>2018</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12">
-        <v>13259130</v>
+        <v>41674901</v>
       </c>
       <c r="C12">
-        <v>2019</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1044,10 +1044,10 @@
         <v>2</v>
       </c>
       <c r="B13">
-        <v>41952677</v>
+        <v>41767969</v>
       </c>
       <c r="C13">
-        <v>2009</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1055,10 +1055,10 @@
         <v>2</v>
       </c>
       <c r="B14">
-        <v>42014274</v>
+        <v>42161170</v>
       </c>
       <c r="C14">
-        <v>2010</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -1066,10 +1066,10 @@
         <v>2</v>
       </c>
       <c r="B15">
-        <v>41674901</v>
+        <v>42415215</v>
       </c>
       <c r="C15">
-        <v>2011</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -1077,10 +1077,10 @@
         <v>2</v>
       </c>
       <c r="B16">
-        <v>41767969</v>
+        <v>42731868</v>
       </c>
       <c r="C16">
-        <v>2012</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -1088,76 +1088,77 @@
         <v>2</v>
       </c>
       <c r="B17">
-        <v>42161170</v>
+        <v>43182140</v>
       </c>
       <c r="C17">
-        <v>2013</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B18">
-        <v>42415215</v>
+        <v>23331133</v>
       </c>
       <c r="C18">
-        <v>2014</v>
-      </c>
+        <v>2009</v>
+      </c>
+      <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B19">
-        <v>42731868</v>
+        <v>23527392</v>
       </c>
       <c r="C19">
-        <v>2015</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B20">
-        <v>43182140</v>
+        <v>23558817</v>
       </c>
       <c r="C20">
-        <v>2016</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B21">
-        <v>43394167</v>
+        <v>23565348</v>
       </c>
       <c r="C21">
-        <v>2017</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B22">
-        <v>43422774</v>
+        <v>23360853</v>
       </c>
       <c r="C22">
-        <v>2018</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B23">
-        <v>43228550</v>
+        <v>23142240</v>
       </c>
       <c r="C23">
-        <v>2019</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -1165,605 +1166,373 @@
         <v>3</v>
       </c>
       <c r="B24">
-        <v>23331133</v>
+        <v>23057305</v>
       </c>
       <c r="C24">
-        <v>2009</v>
-      </c>
-      <c r="M24" s="1"/>
+        <v>2015</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>3</v>
       </c>
       <c r="B25">
-        <v>23527392</v>
+        <v>23019668</v>
       </c>
       <c r="C25">
-        <v>2010</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B26">
-        <v>23558817</v>
+        <v>29739196</v>
       </c>
       <c r="C26">
-        <v>2011</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B27">
-        <v>23565348</v>
+        <v>29836117</v>
       </c>
       <c r="C27">
-        <v>2012</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B28">
-        <v>23360853</v>
+        <v>29828496</v>
       </c>
       <c r="C28">
-        <v>2013</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B29">
-        <v>23142240</v>
+        <v>30059730</v>
       </c>
       <c r="C29">
-        <v>2014</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B30">
-        <v>23057305</v>
+        <v>30193260</v>
       </c>
       <c r="C30">
-        <v>2015</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B31">
-        <v>23019668</v>
+        <v>30131595</v>
       </c>
       <c r="C31">
-        <v>2016</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B32">
-        <v>22924651</v>
+        <v>30218801</v>
       </c>
       <c r="C32">
-        <v>2017</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B33">
-        <v>22863498</v>
+        <v>30293589</v>
       </c>
       <c r="C33">
-        <v>2018</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B34">
-        <v>22734390</v>
+        <v>24496302</v>
       </c>
       <c r="C34">
-        <v>2019</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B35">
-        <v>29739196</v>
+        <v>24432021</v>
       </c>
       <c r="C35">
-        <v>2009</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B36">
-        <v>29836117</v>
+        <v>24418799</v>
       </c>
       <c r="C36">
-        <v>2010</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B37">
-        <v>29828496</v>
+        <v>24940520</v>
       </c>
       <c r="C37">
-        <v>2011</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B38">
-        <v>30059730</v>
+        <v>25045316</v>
       </c>
       <c r="C38">
-        <v>2012</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B39">
-        <v>30193260</v>
+        <v>25404369</v>
       </c>
       <c r="C39">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B40">
-        <v>30131595</v>
+        <v>25344344</v>
       </c>
       <c r="C40">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B41">
-        <v>30218801</v>
+        <v>25585208</v>
       </c>
       <c r="C41">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B42">
-        <v>30293589</v>
+        <v>48482135</v>
       </c>
       <c r="C42">
-        <v>2016</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B43">
-        <v>30254322</v>
+        <v>49344235</v>
       </c>
       <c r="C43">
-        <v>2017</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B44">
-        <v>30259162</v>
+        <v>50371763</v>
       </c>
       <c r="C44">
-        <v>2018</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B45">
-        <v>30316795</v>
+        <v>51893358</v>
       </c>
       <c r="C45">
-        <v>2019</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B46">
-        <v>24496302</v>
+        <v>52652690</v>
       </c>
       <c r="C46">
-        <v>2009</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B47">
-        <v>24432021</v>
+        <v>53057168</v>
       </c>
       <c r="C47">
-        <v>2010</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B48">
-        <v>24418799</v>
+        <v>54088799</v>
       </c>
       <c r="C48">
-        <v>2011</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B49">
-        <v>24940520</v>
+        <v>54926772</v>
       </c>
       <c r="C49">
-        <v>2012</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B50">
-        <v>25045316</v>
+        <v>157153235</v>
       </c>
       <c r="C50">
-        <v>2013</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B51">
-        <v>25404369</v>
+        <v>156950122</v>
       </c>
       <c r="C51">
-        <v>2014</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B52">
-        <v>25344344</v>
+        <v>157034338</v>
       </c>
       <c r="C52">
-        <v>2015</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B53">
-        <v>25585208</v>
+        <v>158288096</v>
       </c>
       <c r="C53">
-        <v>2016</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B54">
-        <v>25730306</v>
+        <v>158831064</v>
       </c>
       <c r="C54">
-        <v>2017</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B55">
-        <v>25616738</v>
+        <v>159610790</v>
       </c>
       <c r="C55">
-        <v>2018</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B56">
-        <v>25507457</v>
+        <v>160676107</v>
       </c>
       <c r="C56">
-        <v>2019</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B57">
-        <v>48482135</v>
+        <v>162628720</v>
       </c>
       <c r="C57">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>6</v>
-      </c>
-      <c r="B58">
-        <v>49344235</v>
-      </c>
-      <c r="C58">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>6</v>
-      </c>
-      <c r="B59">
-        <v>50371763</v>
-      </c>
-      <c r="C59">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>6</v>
-      </c>
-      <c r="B60">
-        <v>51893358</v>
-      </c>
-      <c r="C60">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>6</v>
-      </c>
-      <c r="B61">
-        <v>52652690</v>
-      </c>
-      <c r="C61">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>6</v>
-      </c>
-      <c r="B62">
-        <v>53057168</v>
-      </c>
-      <c r="C62">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>6</v>
-      </c>
-      <c r="B63">
-        <v>54088799</v>
-      </c>
-      <c r="C63">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>6</v>
-      </c>
-      <c r="B64">
-        <v>54926772</v>
-      </c>
-      <c r="C64">
         <v>2016</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>6</v>
-      </c>
-      <c r="B65">
-        <v>55695296</v>
-      </c>
-      <c r="C65">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>6</v>
-      </c>
-      <c r="B66">
-        <v>56635827</v>
-      </c>
-      <c r="C66">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>6</v>
-      </c>
-      <c r="B67">
-        <v>57558589</v>
-      </c>
-      <c r="C67">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>9</v>
-      </c>
-      <c r="B68">
-        <v>157153235</v>
-      </c>
-      <c r="C68">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>9</v>
-      </c>
-      <c r="B69">
-        <v>156950122</v>
-      </c>
-      <c r="C69">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>9</v>
-      </c>
-      <c r="B70">
-        <v>157034338</v>
-      </c>
-      <c r="C70">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>9</v>
-      </c>
-      <c r="B71">
-        <v>158288096</v>
-      </c>
-      <c r="C71">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>9</v>
-      </c>
-      <c r="B72">
-        <v>158831064</v>
-      </c>
-      <c r="C72">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>9</v>
-      </c>
-      <c r="B73">
-        <v>159610790</v>
-      </c>
-      <c r="C73">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>9</v>
-      </c>
-      <c r="B74">
-        <v>160676107</v>
-      </c>
-      <c r="C74">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>9</v>
-      </c>
-      <c r="B75">
-        <v>162628720</v>
-      </c>
-      <c r="C75">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>9</v>
-      </c>
-      <c r="B76">
-        <v>164347097</v>
-      </c>
-      <c r="C76">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>9</v>
-      </c>
-      <c r="B77">
-        <v>164949531</v>
-      </c>
-      <c r="C77">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>9</v>
-      </c>
-      <c r="B78">
-        <v>165735957</v>
-      </c>
-      <c r="C78">
-        <v>2019</v>
       </c>
     </row>
   </sheetData>
